--- a/Output_Backtest/Maximum_Diversification_cumulative_returns.xlsx
+++ b/Output_Backtest/Maximum_Diversification_cumulative_returns.xlsx
@@ -684,7 +684,7 @@
         <v>42338</v>
       </c>
       <c r="B38">
-        <v>0.9820534218297731</v>
+        <v>0.9820533743213974</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42369</v>
       </c>
       <c r="B39">
-        <v>0.9498423387419851</v>
+        <v>0.949842070029512</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>42400</v>
       </c>
       <c r="B40">
-        <v>0.941291622262891</v>
+        <v>0.9412915637543008</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>42429</v>
       </c>
       <c r="B41">
-        <v>0.946727278957503</v>
+        <v>0.9467274791857226</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>42460</v>
       </c>
       <c r="B42">
-        <v>0.9756208624567534</v>
+        <v>0.9756210048806009</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>42490</v>
       </c>
       <c r="B43">
-        <v>0.9956623041747071</v>
+        <v>0.9956625416329876</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>42521</v>
       </c>
       <c r="B44">
-        <v>1.009920783676285</v>
+        <v>1.00992115329155</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -740,7 +740,7 @@
         <v>42551</v>
       </c>
       <c r="B45">
-        <v>1.038058656936773</v>
+        <v>1.038058978537947</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -748,7 +748,7 @@
         <v>42582</v>
       </c>
       <c r="B46">
-        <v>1.043092472675808</v>
+        <v>1.04309275310036</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -756,7 +756,7 @@
         <v>42613</v>
       </c>
       <c r="B47">
-        <v>1.047820723308626</v>
+        <v>1.047820517541106</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>42643</v>
       </c>
       <c r="B48">
-        <v>1.053706599760895</v>
+        <v>1.05370676950207</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>42674</v>
       </c>
       <c r="B49">
-        <v>1.023115941924613</v>
+        <v>1.023116074438325</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>42704</v>
       </c>
       <c r="B50">
-        <v>1.005940909563457</v>
+        <v>1.005941096151152</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>42735</v>
       </c>
       <c r="B51">
-        <v>1.017273005159603</v>
+        <v>1.017273157769519</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>42766</v>
       </c>
       <c r="B52">
-        <v>1.021524355407936</v>
+        <v>1.021524379175927</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>42794</v>
       </c>
       <c r="B53">
-        <v>1.035827637954782</v>
+        <v>1.035827608561473</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>42825</v>
       </c>
       <c r="B54">
-        <v>1.02658651928448</v>
+        <v>1.026586287270062</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>42855</v>
       </c>
       <c r="B55">
-        <v>1.033619385895438</v>
+        <v>1.033619271304488</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -828,7 +828,7 @@
         <v>42886</v>
       </c>
       <c r="B56">
-        <v>1.038714576761353</v>
+        <v>1.038714554460834</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -836,7 +836,7 @@
         <v>42916</v>
       </c>
       <c r="B57">
-        <v>1.036406986604226</v>
+        <v>1.036407017345045</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -844,7 +844,7 @@
         <v>42947</v>
       </c>
       <c r="B58">
-        <v>1.051711931345357</v>
+        <v>1.051711549306068</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -852,7 +852,7 @@
         <v>42978</v>
       </c>
       <c r="B59">
-        <v>1.055966102163931</v>
+        <v>1.055964502588512</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -860,7 +860,7 @@
         <v>43008</v>
       </c>
       <c r="B60">
-        <v>1.069024975439596</v>
+        <v>1.069026342544589</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -868,7 +868,7 @@
         <v>43039</v>
       </c>
       <c r="B61">
-        <v>1.079678489442352</v>
+        <v>1.079679555026309</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -876,7 +876,7 @@
         <v>43069</v>
       </c>
       <c r="B62">
-        <v>1.091754911468864</v>
+        <v>1.091758284150923</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -884,7 +884,7 @@
         <v>43100</v>
       </c>
       <c r="B63">
-        <v>1.097893125189697</v>
+        <v>1.09789783310567</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -892,7 +892,7 @@
         <v>43131</v>
       </c>
       <c r="B64">
-        <v>1.100631296536554</v>
+        <v>1.100635480377852</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -900,7 +900,7 @@
         <v>43159</v>
       </c>
       <c r="B65">
-        <v>1.080545189543191</v>
+        <v>1.080549416670936</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>43190</v>
       </c>
       <c r="B66">
-        <v>1.094924207652414</v>
+        <v>1.09492884321356</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>43220</v>
       </c>
       <c r="B67">
-        <v>1.091975930851859</v>
+        <v>1.091980678659418</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>43251</v>
       </c>
       <c r="B68">
-        <v>1.112400733892907</v>
+        <v>1.112405417601501</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>43281</v>
       </c>
       <c r="B69">
-        <v>1.123977861874081</v>
+        <v>1.123982540861214</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>43312</v>
       </c>
       <c r="B70">
-        <v>1.121570656277811</v>
+        <v>1.121575563497406</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -948,7 +948,7 @@
         <v>43343</v>
       </c>
       <c r="B71">
-        <v>1.141302656488707</v>
+        <v>1.141307239230668</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -956,7 +956,7 @@
         <v>43373</v>
       </c>
       <c r="B72">
-        <v>1.130732050507635</v>
+        <v>1.130736735613635</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>43404</v>
       </c>
       <c r="B73">
-        <v>1.099967979207092</v>
+        <v>1.099972583946663</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>43434</v>
       </c>
       <c r="B74">
-        <v>1.095031235701621</v>
+        <v>1.095036052565984</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>43465</v>
       </c>
       <c r="B75">
-        <v>1.080103826729919</v>
+        <v>1.080108319417772</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>43496</v>
       </c>
       <c r="B76">
-        <v>1.131116092890107</v>
+        <v>1.131120996422147</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>43524</v>
       </c>
       <c r="B77">
-        <v>1.138268232655139</v>
+        <v>1.138273191079353</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>43555</v>
       </c>
       <c r="B78">
-        <v>1.15966153478336</v>
+        <v>1.159667003327579</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>43585</v>
       </c>
       <c r="B79">
-        <v>1.173966300526861</v>
+        <v>1.173971897570567</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>43616</v>
       </c>
       <c r="B80">
-        <v>1.159206655909245</v>
+        <v>1.15921233647035</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>43646</v>
       </c>
       <c r="B81">
-        <v>1.199681924902418</v>
+        <v>1.199688286588852</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>43677</v>
       </c>
       <c r="B82">
-        <v>1.205866316916342</v>
+        <v>1.20587265210322</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>43708</v>
       </c>
       <c r="B83">
-        <v>1.227152246569322</v>
+        <v>1.227158420547994</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>43738</v>
       </c>
       <c r="B84">
-        <v>1.227767003959393</v>
+        <v>1.227773288717219</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>43769</v>
       </c>
       <c r="B85">
-        <v>1.240185619470963</v>
+        <v>1.240191642653407</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>43799</v>
       </c>
       <c r="B86">
-        <v>1.240364410180253</v>
+        <v>1.240370982361356</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>43830</v>
       </c>
       <c r="B87">
-        <v>1.257557493209634</v>
+        <v>1.257563715860479</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>43861</v>
       </c>
       <c r="B88">
-        <v>1.272304047165453</v>
+        <v>1.272310439486779</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>43890</v>
       </c>
       <c r="B89">
-        <v>1.262916998375402</v>
+        <v>1.262923065226858</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>43921</v>
       </c>
       <c r="B90">
-        <v>1.230998972005301</v>
+        <v>1.231004526349488</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>43951</v>
       </c>
       <c r="B91">
-        <v>1.245379180729573</v>
+        <v>1.245385102041134</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>43982</v>
       </c>
       <c r="B92">
-        <v>1.276185650335702</v>
+        <v>1.276191631598317</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>44012</v>
       </c>
       <c r="B93">
-        <v>1.298889846482117</v>
+        <v>1.298896207728561</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>44043</v>
       </c>
       <c r="B94">
-        <v>1.348189439251716</v>
+        <v>1.348195865930062</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>44074</v>
       </c>
       <c r="B95">
-        <v>1.327625558871937</v>
+        <v>1.327631982058485</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>44104</v>
       </c>
       <c r="B96">
-        <v>1.31119801996662</v>
+        <v>1.311204383928051</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>44135</v>
       </c>
       <c r="B97">
-        <v>1.286368042321191</v>
+        <v>1.286374045915708</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>44165</v>
       </c>
       <c r="B98">
-        <v>1.347473952631628</v>
+        <v>1.347480323339416</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>44196</v>
       </c>
       <c r="B99">
-        <v>1.366655677363646</v>
+        <v>1.366662452393782</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>44227</v>
       </c>
       <c r="B100">
-        <v>1.360088719072201</v>
+        <v>1.360095450592153</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>44255</v>
       </c>
       <c r="B101">
-        <v>1.345974051777526</v>
+        <v>1.345980562477117</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>44286</v>
       </c>
       <c r="B102">
-        <v>1.321435681529703</v>
+        <v>1.321440820533542</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>44316</v>
       </c>
       <c r="B103">
-        <v>1.346016641953521</v>
+        <v>1.346023040825155</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>44347</v>
       </c>
       <c r="B104">
-        <v>1.361814844930417</v>
+        <v>1.361820978971422</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>44377</v>
       </c>
       <c r="B105">
-        <v>1.389801603211244</v>
+        <v>1.38980815981315</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>44408</v>
       </c>
       <c r="B106">
-        <v>1.394688497370991</v>
+        <v>1.394694976504789</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>44439</v>
       </c>
       <c r="B107">
-        <v>1.391054003450593</v>
+        <v>1.391060648383134</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>44469</v>
       </c>
       <c r="B108">
-        <v>1.366091667126224</v>
+        <v>1.366098287239193</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>44500</v>
       </c>
       <c r="B109">
-        <v>1.379935899286931</v>
+        <v>1.379942686532918</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>44530</v>
       </c>
       <c r="B110">
-        <v>1.374144642038215</v>
+        <v>1.374151019079046</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>44561</v>
       </c>
       <c r="B111">
-        <v>1.385013903190474</v>
+        <v>1.385020208767118</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>44592</v>
       </c>
       <c r="B112">
-        <v>1.349107178658577</v>
+        <v>1.349113510469085</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>44620</v>
       </c>
       <c r="B113">
-        <v>1.341607069862349</v>
+        <v>1.34161376359181</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>44651</v>
       </c>
       <c r="B114">
-        <v>1.303994110210352</v>
+        <v>1.304000733720912</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>44681</v>
       </c>
       <c r="B115">
-        <v>1.245750880146332</v>
+        <v>1.245757972032463</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>44712</v>
       </c>
       <c r="B116">
-        <v>1.257207804027731</v>
+        <v>1.257215201957937</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>44742</v>
       </c>
       <c r="B117">
-        <v>1.237437799040489</v>
+        <v>1.237445324453994</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>44773</v>
       </c>
       <c r="B118">
-        <v>1.24413709199797</v>
+        <v>1.244144648146811</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>44804</v>
       </c>
       <c r="B119">
-        <v>1.201962749176124</v>
+        <v>1.201968419618481</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>44834</v>
       </c>
       <c r="B120">
-        <v>1.120020805852273</v>
+        <v>1.12002614418048</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>44865</v>
       </c>
       <c r="B121">
-        <v>1.094609351418147</v>
+        <v>1.094614597705371</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>44895</v>
       </c>
       <c r="B122">
-        <v>1.158166338144374</v>
+        <v>1.158171663801625</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>44926</v>
       </c>
       <c r="B123">
-        <v>1.148896214274901</v>
+        <v>1.148901617917442</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>44957</v>
       </c>
       <c r="B124">
-        <v>1.205360598057441</v>
+        <v>1.205365707954698</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>44985</v>
       </c>
       <c r="B125">
-        <v>1.156083649115084</v>
+        <v>1.156088714847632</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>45016</v>
       </c>
       <c r="B126">
-        <v>1.196695250470768</v>
+        <v>1.196700383541375</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>45046</v>
       </c>
       <c r="B127">
-        <v>1.19458317684805</v>
+        <v>1.194588397246383</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>45077</v>
       </c>
       <c r="B128">
-        <v>1.145925473582773</v>
+        <v>1.145930404691437</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>45107</v>
       </c>
       <c r="B129">
-        <v>1.170804530505077</v>
+        <v>1.170811064024081</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>45138</v>
       </c>
       <c r="B130">
-        <v>1.2242558565574</v>
+        <v>1.224263992282319</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>45169</v>
       </c>
       <c r="B131">
-        <v>1.189496522012542</v>
+        <v>1.189503933083527</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>45199</v>
       </c>
       <c r="B132">
-        <v>1.158407765623948</v>
+        <v>1.158413672451293</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>45230</v>
       </c>
       <c r="B133">
-        <v>1.155186819288083</v>
+        <v>1.155192257352506</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>45260</v>
       </c>
       <c r="B134">
-        <v>1.183829606234932</v>
+        <v>1.1838354303813</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>45291</v>
       </c>
       <c r="B135">
-        <v>1.203603700529476</v>
+        <v>1.203609725635759</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>45322</v>
       </c>
       <c r="B136">
-        <v>1.194765476816594</v>
+        <v>1.194771544052869</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>45351</v>
       </c>
       <c r="B137">
-        <v>1.217920433336173</v>
+        <v>1.217926727767867</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>45382</v>
       </c>
       <c r="B138">
-        <v>1.266689140726072</v>
+        <v>1.26669602713349</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>45412</v>
       </c>
       <c r="B139">
-        <v>1.25614765202505</v>
+        <v>1.256154624653208</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>45443</v>
       </c>
       <c r="B140">
-        <v>1.26528768741744</v>
+        <v>1.265294748235415</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>45473</v>
       </c>
       <c r="B141">
-        <v>1.284619261310677</v>
+        <v>1.284626303426199</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>45504</v>
       </c>
       <c r="B142">
-        <v>1.300260631655378</v>
+        <v>1.300267742653011</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>45535</v>
       </c>
       <c r="B143">
-        <v>1.314773160689056</v>
+        <v>1.314780386890614</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1532,7 +1532,7 @@
         <v>45565</v>
       </c>
       <c r="B144">
-        <v>1.337461217389534</v>
+        <v>1.337468659776346</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1540,7 +1540,7 @@
         <v>45596</v>
       </c>
       <c r="B145">
-        <v>1.331352945881091</v>
+        <v>1.331360517528809</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>45626</v>
       </c>
       <c r="B146">
-        <v>1.287618118570016</v>
+        <v>1.287626222168022</v>
       </c>
     </row>
   </sheetData>

--- a/Output_Backtest/Maximum_Diversification_cumulative_returns.xlsx
+++ b/Output_Backtest/Maximum_Diversification_cumulative_returns.xlsx
@@ -684,7 +684,7 @@
         <v>42338</v>
       </c>
       <c r="B38">
-        <v>0.9820533743213974</v>
+        <v>0.9820531355454483</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42369</v>
       </c>
       <c r="B39">
-        <v>0.949842070029512</v>
+        <v>0.9498421176123615</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>42400</v>
       </c>
       <c r="B40">
-        <v>0.9412915637543008</v>
+        <v>0.9412912659674435</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>42429</v>
       </c>
       <c r="B41">
-        <v>0.9467274791857226</v>
+        <v>0.9467271523902856</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>42460</v>
       </c>
       <c r="B42">
-        <v>0.9756210048806009</v>
+        <v>0.9756208594790997</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>42490</v>
       </c>
       <c r="B43">
-        <v>0.9956625416329876</v>
+        <v>0.9956625903037365</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>42521</v>
       </c>
       <c r="B44">
-        <v>1.00992115329155</v>
+        <v>1.009921055061684</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -740,7 +740,7 @@
         <v>42551</v>
       </c>
       <c r="B45">
-        <v>1.038058978537947</v>
+        <v>1.038058787039446</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -748,7 +748,7 @@
         <v>42582</v>
       </c>
       <c r="B46">
-        <v>1.04309275310036</v>
+        <v>1.043092885571541</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -756,7 +756,7 @@
         <v>42613</v>
       </c>
       <c r="B47">
-        <v>1.047820517541106</v>
+        <v>1.047820831755692</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>42643</v>
       </c>
       <c r="B48">
-        <v>1.05370676950207</v>
+        <v>1.053707096028472</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>42674</v>
       </c>
       <c r="B49">
-        <v>1.023116074438325</v>
+        <v>1.023116102961017</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>42704</v>
       </c>
       <c r="B50">
-        <v>1.005941096151152</v>
+        <v>1.005941548495237</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>42735</v>
       </c>
       <c r="B51">
-        <v>1.017273157769519</v>
+        <v>1.01727356382648</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>42766</v>
       </c>
       <c r="B52">
-        <v>1.021524379175927</v>
+        <v>1.021524903360275</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>42794</v>
       </c>
       <c r="B53">
-        <v>1.035827608561473</v>
+        <v>1.035828212853947</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>42825</v>
       </c>
       <c r="B54">
-        <v>1.026586287270062</v>
+        <v>1.026587097994108</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>42855</v>
       </c>
       <c r="B55">
-        <v>1.033619271304488</v>
+        <v>1.033620081796842</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -828,7 +828,7 @@
         <v>42886</v>
       </c>
       <c r="B56">
-        <v>1.038714554460834</v>
+        <v>1.038715223738975</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -836,7 +836,7 @@
         <v>42916</v>
       </c>
       <c r="B57">
-        <v>1.036407017345045</v>
+        <v>1.036407422654068</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -844,7 +844,7 @@
         <v>42947</v>
       </c>
       <c r="B58">
-        <v>1.051711549306068</v>
+        <v>1.051712343485773</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -852,7 +852,7 @@
         <v>42978</v>
       </c>
       <c r="B59">
-        <v>1.055964502588512</v>
+        <v>1.055966216218089</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -860,7 +860,7 @@
         <v>43008</v>
       </c>
       <c r="B60">
-        <v>1.069026342544589</v>
+        <v>1.069025478204414</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -868,7 +868,7 @@
         <v>43039</v>
       </c>
       <c r="B61">
-        <v>1.079679555026309</v>
+        <v>1.079679000789134</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -876,7 +876,7 @@
         <v>43069</v>
       </c>
       <c r="B62">
-        <v>1.091758284150923</v>
+        <v>1.09175699087636</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -884,7 +884,7 @@
         <v>43100</v>
       </c>
       <c r="B63">
-        <v>1.09789783310567</v>
+        <v>1.09789632380095</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -892,7 +892,7 @@
         <v>43131</v>
       </c>
       <c r="B64">
-        <v>1.100635480377852</v>
+        <v>1.100633970406971</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -900,7 +900,7 @@
         <v>43159</v>
       </c>
       <c r="B65">
-        <v>1.080549416670936</v>
+        <v>1.080548194472513</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>43190</v>
       </c>
       <c r="B66">
-        <v>1.09492884321356</v>
+        <v>1.0949273091881</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>43220</v>
       </c>
       <c r="B67">
-        <v>1.091980678659418</v>
+        <v>1.091979006830815</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>43251</v>
       </c>
       <c r="B68">
-        <v>1.112405417601501</v>
+        <v>1.112404046896628</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>43281</v>
       </c>
       <c r="B69">
-        <v>1.123982540861214</v>
+        <v>1.123981197435774</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>43312</v>
       </c>
       <c r="B70">
-        <v>1.121575563497406</v>
+        <v>1.121574085367365</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -948,7 +948,7 @@
         <v>43343</v>
       </c>
       <c r="B71">
-        <v>1.141307239230668</v>
+        <v>1.141305774479862</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -956,7 +956,7 @@
         <v>43373</v>
       </c>
       <c r="B72">
-        <v>1.130736735613635</v>
+        <v>1.130735076313718</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>43404</v>
       </c>
       <c r="B73">
-        <v>1.099972583946663</v>
+        <v>1.099970758981393</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>43434</v>
       </c>
       <c r="B74">
-        <v>1.095036052565984</v>
+        <v>1.095034626770299</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>43465</v>
       </c>
       <c r="B75">
-        <v>1.080108319417772</v>
+        <v>1.080106935772361</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>43496</v>
       </c>
       <c r="B76">
-        <v>1.131120996422147</v>
+        <v>1.131119550607061</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>43524</v>
       </c>
       <c r="B77">
-        <v>1.138273191079353</v>
+        <v>1.138271464425572</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>43555</v>
       </c>
       <c r="B78">
-        <v>1.159667003327579</v>
+        <v>1.159665492443002</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>43585</v>
       </c>
       <c r="B79">
-        <v>1.173971897570567</v>
+        <v>1.173970047097296</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>43616</v>
       </c>
       <c r="B80">
-        <v>1.15921233647035</v>
+        <v>1.15921048699857</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>43646</v>
       </c>
       <c r="B81">
-        <v>1.199688286588852</v>
+        <v>1.199684527746094</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>43677</v>
       </c>
       <c r="B82">
-        <v>1.20587265210322</v>
+        <v>1.205868962971163</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>43708</v>
       </c>
       <c r="B83">
-        <v>1.227158420547994</v>
+        <v>1.227154778314899</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>43738</v>
       </c>
       <c r="B84">
-        <v>1.227773288717219</v>
+        <v>1.227769613889545</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>43769</v>
       </c>
       <c r="B85">
-        <v>1.240191642653407</v>
+        <v>1.24018805465818</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>43799</v>
       </c>
       <c r="B86">
-        <v>1.240370982361356</v>
+        <v>1.240367271460517</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>43830</v>
       </c>
       <c r="B87">
-        <v>1.257563715860479</v>
+        <v>1.257560189333291</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>43861</v>
       </c>
       <c r="B88">
-        <v>1.272310439486779</v>
+        <v>1.272306616133415</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>43890</v>
       </c>
       <c r="B89">
-        <v>1.262923065226858</v>
+        <v>1.262919503814805</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>43921</v>
       </c>
       <c r="B90">
-        <v>1.231004526349488</v>
+        <v>1.231001425110964</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>43951</v>
       </c>
       <c r="B91">
-        <v>1.245385102041134</v>
+        <v>1.245381831072607</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>43982</v>
       </c>
       <c r="B92">
-        <v>1.276191631598317</v>
+        <v>1.276188145762706</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>44012</v>
       </c>
       <c r="B93">
-        <v>1.298896207728561</v>
+        <v>1.29889289764617</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>44043</v>
       </c>
       <c r="B94">
-        <v>1.348195865930062</v>
+        <v>1.348192470423034</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>44074</v>
       </c>
       <c r="B95">
-        <v>1.327631982058485</v>
+        <v>1.327628925947452</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>44104</v>
       </c>
       <c r="B96">
-        <v>1.311204383928051</v>
+        <v>1.311201308171859</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>44135</v>
       </c>
       <c r="B97">
-        <v>1.286374045915708</v>
+        <v>1.286370971029571</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>44165</v>
       </c>
       <c r="B98">
-        <v>1.347480323339416</v>
+        <v>1.347477035813321</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>44196</v>
       </c>
       <c r="B99">
-        <v>1.366662452393782</v>
+        <v>1.366659076120897</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>44227</v>
       </c>
       <c r="B100">
-        <v>1.360095450592153</v>
+        <v>1.360092133906038</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>44255</v>
       </c>
       <c r="B101">
-        <v>1.345980562477117</v>
+        <v>1.345977250060711</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>44286</v>
       </c>
       <c r="B102">
-        <v>1.321440820533542</v>
+        <v>1.321437408564195</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>44316</v>
       </c>
       <c r="B103">
-        <v>1.346023040825155</v>
+        <v>1.346019779632731</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>44347</v>
       </c>
       <c r="B104">
-        <v>1.361820978971422</v>
+        <v>1.361818087509969</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>44377</v>
       </c>
       <c r="B105">
-        <v>1.38980815981315</v>
+        <v>1.38980504930023</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>44408</v>
       </c>
       <c r="B106">
-        <v>1.394694976504789</v>
+        <v>1.394692023720135</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>44439</v>
       </c>
       <c r="B107">
-        <v>1.391060648383134</v>
+        <v>1.391057536104591</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>44469</v>
       </c>
       <c r="B108">
-        <v>1.366098287239193</v>
+        <v>1.366095464840379</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>44500</v>
       </c>
       <c r="B109">
-        <v>1.379942686532918</v>
+        <v>1.379939497976819</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>44530</v>
       </c>
       <c r="B110">
-        <v>1.374151019079046</v>
+        <v>1.374147986761711</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>44561</v>
       </c>
       <c r="B111">
-        <v>1.385020208767118</v>
+        <v>1.385017220814277</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>44592</v>
       </c>
       <c r="B112">
-        <v>1.349113510469085</v>
+        <v>1.349110495203558</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>44620</v>
       </c>
       <c r="B113">
-        <v>1.34161376359181</v>
+        <v>1.341610312428359</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>44651</v>
       </c>
       <c r="B114">
-        <v>1.304000733720912</v>
+        <v>1.303997407988192</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>44681</v>
       </c>
       <c r="B115">
-        <v>1.245757972032463</v>
+        <v>1.245753672620523</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>44712</v>
       </c>
       <c r="B116">
-        <v>1.257215201957937</v>
+        <v>1.257211018219097</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>44742</v>
       </c>
       <c r="B117">
-        <v>1.237445324453994</v>
+        <v>1.237441154457282</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>44773</v>
       </c>
       <c r="B118">
-        <v>1.244144648146811</v>
+        <v>1.244140883336667</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>44804</v>
       </c>
       <c r="B119">
-        <v>1.201968419618481</v>
+        <v>1.201964136486577</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>44834</v>
       </c>
       <c r="B120">
-        <v>1.12002614418048</v>
+        <v>1.120022152624848</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>44865</v>
       </c>
       <c r="B121">
-        <v>1.094614597705371</v>
+        <v>1.094610888652313</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>44895</v>
       </c>
       <c r="B122">
-        <v>1.158171663801625</v>
+        <v>1.158167605162388</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>44926</v>
       </c>
       <c r="B123">
-        <v>1.148901617917442</v>
+        <v>1.148897645273313</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>44957</v>
       </c>
       <c r="B124">
-        <v>1.205365707954698</v>
+        <v>1.205361805264624</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>44985</v>
       </c>
       <c r="B125">
-        <v>1.156088714847632</v>
+        <v>1.15608471780515</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>45016</v>
       </c>
       <c r="B126">
-        <v>1.196700383541375</v>
+        <v>1.196696468043969</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>45046</v>
       </c>
       <c r="B127">
-        <v>1.194588397246383</v>
+        <v>1.194584388648182</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>45077</v>
       </c>
       <c r="B128">
-        <v>1.145930404691437</v>
+        <v>1.145926701085807</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>45107</v>
       </c>
       <c r="B129">
-        <v>1.170811064024081</v>
+        <v>1.170805541664079</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>45138</v>
       </c>
       <c r="B130">
-        <v>1.224263992282319</v>
+        <v>1.224256819838837</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>45169</v>
       </c>
       <c r="B131">
-        <v>1.189503933083527</v>
+        <v>1.189497384213934</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>45199</v>
       </c>
       <c r="B132">
-        <v>1.158413672451293</v>
+        <v>1.158408373344109</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>45230</v>
       </c>
       <c r="B133">
-        <v>1.155192257352506</v>
+        <v>1.155187210742047</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>45260</v>
       </c>
       <c r="B134">
-        <v>1.1838354303813</v>
+        <v>1.183830097025015</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>45291</v>
       </c>
       <c r="B135">
-        <v>1.203609725635759</v>
+        <v>1.203604188294036</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>45322</v>
       </c>
       <c r="B136">
-        <v>1.194771544052869</v>
+        <v>1.194765922472256</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>45351</v>
       </c>
       <c r="B137">
-        <v>1.217926727767867</v>
+        <v>1.217920959102458</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>45382</v>
       </c>
       <c r="B138">
-        <v>1.26669602713349</v>
+        <v>1.266689887333565</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>45412</v>
       </c>
       <c r="B139">
-        <v>1.256154624653208</v>
+        <v>1.25614853616694</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>45443</v>
       </c>
       <c r="B140">
-        <v>1.265294748235415</v>
+        <v>1.265288601353338</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>45473</v>
       </c>
       <c r="B141">
-        <v>1.284626303426199</v>
+        <v>1.284620238512136</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>45504</v>
       </c>
       <c r="B142">
-        <v>1.300267742653011</v>
+        <v>1.300261575749677</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>45535</v>
       </c>
       <c r="B143">
-        <v>1.314780386890614</v>
+        <v>1.314774155575883</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1532,7 +1532,7 @@
         <v>45565</v>
       </c>
       <c r="B144">
-        <v>1.337468659776346</v>
+        <v>1.337462307456886</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1540,7 +1540,7 @@
         <v>45596</v>
       </c>
       <c r="B145">
-        <v>1.331360517528809</v>
+        <v>1.331354159271501</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>45626</v>
       </c>
       <c r="B146">
-        <v>1.287626222168022</v>
+        <v>1.307015639645251</v>
       </c>
     </row>
   </sheetData>
